--- a/public/Classroom Coaching Market in India.xlsx
+++ b/public/Classroom Coaching Market in India.xlsx
@@ -986,7 +986,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,15 +994,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,15 +1050,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1115,98 +1100,122 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1536,1550 +1545,1546 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="11" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="11.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="59" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="9" style="45" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="55.36328125" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="11.90625" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="55.36328125" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="19"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="17"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="66" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="66"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="67"/>
-      <c r="K1" s="16"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="59"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="73">
         <v>1000000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.7</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="50">
         <f>D3*C3/10^5</f>
         <v>7</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="41">
         <v>0.16350000000000001</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="41">
         <v>0.25890000000000002</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="54">
         <f>67000*2</f>
         <v>134000</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="46">
         <f>C3*H3*D3/10^7</f>
         <v>9380</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="28" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="73">
         <v>220000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>0.9</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="50">
         <f>D4*C4/10^5</f>
         <v>1.98</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="41">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="41">
         <v>0.27800000000000002</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="54">
         <f>83650*2</f>
         <v>167300</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="46">
         <f>C4*H4*D4/10^7</f>
         <v>3312.54</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="28" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="73">
         <v>787148</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.7</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="50">
         <f>D5*C5/10^5</f>
         <v>5.5100359999999995</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="41">
         <v>0.2412</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="41">
         <v>0.35420000000000001</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="54">
         <v>13950</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="46">
         <f>C5*H5*D5/10^7</f>
         <v>768.65002199999992</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="28" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="73">
         <v>200000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="50">
         <f>D6*C6/10^5</f>
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="61">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="54">
         <v>89000</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="46">
         <f>C6*H6*D6/10^7</f>
         <v>0</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="28" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="73">
         <v>37246</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>0.4</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="50">
         <f>D7*C7/10^5</f>
         <v>0.14898400000000001</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="41">
         <v>0.36090000000000005</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="41">
         <v>0.52629999999999999</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="54">
         <v>35000</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="46">
         <f>C7*H7*D7/10^7</f>
         <v>52.144399999999997</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="28" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="57">
+      <c r="C8" s="73"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="50">
         <f>10%*E3</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="54">
         <v>30000</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="46">
         <f>E8*H8/10^2</f>
         <v>210.00000000000003</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="28" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="25" t="str">
+      <c r="A9" s="12"/>
+      <c r="B9" s="68" t="str">
         <f>"All " &amp;A8&amp;" Coaching Classes"</f>
         <v>All Engineering Coaching Classes</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="62">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="55">
         <f>SUMPRODUCT(H3:H8,E3:E8)/SUM(E3:E8)</f>
         <v>89466.826576926032</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="47">
         <f>SUM(I3:I8)</f>
         <v>13723.334422</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="28" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="74">
         <v>1100000</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.7</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <f t="shared" ref="E10:E38" si="0">D10*C10/10^5</f>
         <v>7.7</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="41">
         <v>0.1244</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="41">
         <v>0.2455</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="53">
         <f>80000*2</f>
         <v>160000</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="45">
         <f t="shared" ref="I10:I36" si="1">C10*H10*D10/10^7</f>
         <v>12319.999999999998</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="28" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="73">
         <v>117000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.6</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="50">
         <f t="shared" si="0"/>
         <v>0.70199999999999996</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="41">
         <v>0.48840000000000006</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="41">
         <v>0.60760000000000003</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="54">
         <v>39850</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="46">
         <f t="shared" si="1"/>
         <v>279.74700000000001</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="50" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="73">
         <v>100000</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="41">
         <v>0.26850000000000002</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="41">
         <v>0.42659999999999998</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="54">
         <v>90000</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="51" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="73">
         <v>25000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="54">
         <v>50000</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="57">
+      <c r="C14" s="73"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="50">
         <f>10%*E10</f>
         <v>0.77</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="54">
         <v>30000</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="46">
         <f>E14*H14/10^2</f>
         <v>231</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="25" t="str">
+      <c r="A15" s="12"/>
+      <c r="B15" s="68" t="str">
         <f>"All " &amp;A14&amp;" Coaching Classes"</f>
         <v>All Medical Coaching Classes</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="62">
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="55">
         <f>SUMPRODUCT(E10:E14,H10:H14)/SUM(E10:E14)</f>
         <v>139890.39467945922</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="47">
         <f>SUM(I10:I14)</f>
         <v>12830.746999999998</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="12"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="74">
         <v>3057993</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.5</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="49">
         <f t="shared" si="0"/>
         <v>15.289965</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="41">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="41">
         <v>0.44060000000000005</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="53">
         <v>10000</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="45">
         <f t="shared" si="1"/>
         <v>1528.9965</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="73">
         <v>1543418</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>0.6</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="50">
         <f t="shared" si="0"/>
         <v>9.2605079999999997</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="54">
         <v>15000</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="46">
         <f t="shared" si="1"/>
         <v>1389.0762</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="73">
         <v>339379</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>0.7</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="50">
         <f t="shared" si="0"/>
         <v>2.3756529999999998</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="41">
         <v>0.34619999999999995</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="41">
         <v>0.46880000000000005</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="54">
         <v>22000</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="46">
         <f t="shared" si="1"/>
         <v>522.64365999999995</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="73">
         <v>341414</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>0.5</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="50">
         <f t="shared" si="0"/>
         <v>1.7070700000000001</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="41">
         <v>0.3196</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="41">
         <v>0.44869999999999999</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="54">
         <v>7500</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="46">
         <f t="shared" si="1"/>
         <v>128.03025</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="25" t="str">
+      <c r="A20" s="12"/>
+      <c r="B20" s="68" t="str">
         <f>"All " &amp;A51&amp;" Coaching Classes"</f>
         <v>All SSC Coaching Classes</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="62">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="55">
         <f>SUMPRODUCT(H16:H19,E16:E19)/SUM(E16:E19)</f>
         <v>12463.668428770578</v>
       </c>
-      <c r="I20" s="54">
+      <c r="I20" s="47">
         <f>SUM(I16:I19)</f>
         <v>3568.7466099999992</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="74">
         <v>2500000</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.5</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="49">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="41">
         <v>0.12520000000000001</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="41">
         <v>0.20430000000000001</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="53">
         <v>11000</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="45">
         <f t="shared" si="1"/>
         <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="73">
         <v>1450000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="41">
         <v>0.22600000000000001</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="41">
         <v>0.34429999999999999</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="54">
         <v>10000</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="73">
         <v>1420000</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>0.25</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="50">
         <f t="shared" si="0"/>
         <v>3.55</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="41">
         <v>0.1711</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="41">
         <v>0.27539999999999998</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="54">
         <v>9750</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="46">
         <f t="shared" si="1"/>
         <v>346.125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="73">
         <v>550000</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>0.25</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="50">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="41">
         <v>0.25170000000000003</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="41">
         <v>0.3367</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="54">
         <v>15000</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="46">
         <f t="shared" si="1"/>
         <v>206.25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="25" t="str">
+      <c r="A25" s="12"/>
+      <c r="B25" s="68" t="str">
         <f>"All " &amp;A24&amp;" Coaching Classes"</f>
         <v>All Bank Coaching Classes</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="62">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="55">
         <f>SUMPRODUCT(H21:H24,E21:E24)/SUM(E21:E24)</f>
         <v>11060.975609756097</v>
       </c>
-      <c r="I25" s="54">
+      <c r="I25" s="47">
         <f>SUM(I21:I24)</f>
         <v>1927.375</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="74">
         <v>500000</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>0.7</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="49">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="41">
         <v>6.88E-2</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="41">
         <v>0.13769999999999999</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="53">
         <v>19750</v>
       </c>
-      <c r="I26" s="52">
+      <c r="I26" s="45">
         <f t="shared" si="1"/>
         <v>691.25</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="73">
         <v>300000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>0.4</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="50">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="61">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="54">
         <v>9500</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="46">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="25" t="str">
+      <c r="A28" s="12"/>
+      <c r="B28" s="68" t="str">
         <f>"All " &amp;A27&amp;" Coaching Classes"</f>
         <v>All Civil Services Coaching Classes</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="62">
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="55">
         <f>SUMPRODUCT(H26:H27,E26:E27)/SUM(E26:E27)</f>
         <v>17132.978723404256</v>
       </c>
-      <c r="I28" s="54">
+      <c r="I28" s="47">
         <f>SUM(I26:I27)</f>
         <v>805.25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="74">
         <f>250000*2</f>
         <v>500000</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>0.7</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="49">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="41">
         <v>0.12619999999999998</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="41">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="53">
         <v>10000</v>
       </c>
-      <c r="I29" s="52">
+      <c r="I29" s="45">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="73">
         <f>150000*2</f>
         <v>300000</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>0.7</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="50">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="41">
         <v>0.19699999999999998</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="41">
         <v>0.44700000000000001</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="54">
         <v>15000</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="46">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="73">
         <f>250000*2</f>
         <v>500000</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>0.7</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="50">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="41">
         <v>0.1186</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="41">
         <v>0.2457</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="54">
         <v>12500</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="46">
         <f t="shared" si="1"/>
         <v>437.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="25" t="str">
+      <c r="A32" s="12"/>
+      <c r="B32" s="68" t="str">
         <f>"All " &amp;A31&amp;" Coaching Classes"</f>
         <v>All Defence Coaching Classes</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="62">
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="55">
         <f>SUMPRODUCT(H29:H31,E29:E31)/SUM(E29:E31)</f>
         <v>12115.384615384615</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I32" s="47">
         <f>SUM(I29:I31)</f>
         <v>1102.5</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="74">
         <v>120000</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>0.2</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="49">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="41">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="41">
         <v>0.19149999999999998</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="53">
         <v>70000</v>
       </c>
-      <c r="I33" s="52">
+      <c r="I33" s="45">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="73">
         <v>500000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>0.1</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="50">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="41">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="41">
         <v>0.19149999999999998</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="54">
         <v>29777</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="46">
         <f t="shared" si="1"/>
         <v>148.88499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="25" t="str">
+      <c r="A35" s="12"/>
+      <c r="B35" s="68" t="str">
         <f>"All " &amp;A34&amp;" Coaching Classes"</f>
         <v>All School Coaching Classes</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="62">
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="55">
         <f>SUMPRODUCT(H33:H34,E33:E34)/SUM(E33:E34)</f>
         <v>42822.2972972973</v>
       </c>
-      <c r="I35" s="54">
+      <c r="I35" s="47">
         <f>SUM(I33:I34)</f>
         <v>316.88499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="74">
         <v>200000</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>0.6</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="49">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="41">
         <v>0.24170000000000003</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="41">
         <v>0.34700000000000003</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="53">
         <v>17000</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I36" s="45">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="73">
         <v>100000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="61">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="54">
         <v>35500</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="46">
         <f>C37*H37*D37/10^7</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="73">
         <v>65000</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="61">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="54">
         <v>36000</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="46">
         <f>C38*H38*D38/10^7</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="25" t="str">
+      <c r="A39" s="12"/>
+      <c r="B39" s="68" t="str">
         <f>"All " &amp;A38&amp;" Coaching Classes"</f>
         <v>All MBA Coaching Classes</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="62">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="55">
         <f>SUMPRODUCT(H36:H38,E36:E38)/SUM(E36:E38)</f>
         <v>17000</v>
       </c>
-      <c r="I39" s="54">
+      <c r="I39" s="47">
         <f>SUM(I36:I38)</f>
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="74">
         <f>150000*2</f>
         <v>300000</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>0.8</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="49">
         <f t="shared" ref="E40:E43" si="2">D40*C40/10^5</f>
         <v>2.4</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="41">
         <v>0.1542</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="41">
         <v>0.30459999999999998</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="53">
         <v>15000</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="45">
         <f t="shared" ref="I40:I43" si="3">C40*H40*D40/10^7</f>
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="73">
         <f>200000*2</f>
         <v>400000</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>0.6</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="50">
         <f>D41*C41/10^5</f>
         <v>2.4</v>
       </c>
-      <c r="F41" s="47">
+      <c r="F41" s="41">
         <v>0.1704</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="41">
         <v>0.31019999999999998</v>
       </c>
-      <c r="H41" s="61">
+      <c r="H41" s="54">
         <v>10000</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="46">
         <f>C41*H41*D41/10^7</f>
         <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="73">
         <f>100000*2</f>
         <v>200000</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="4">
         <v>0.8</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="50">
         <f>D42*C42/10^5</f>
         <v>1.6</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="41">
         <v>0.1573</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="41">
         <v>0.31069999999999998</v>
       </c>
-      <c r="H42" s="61">
+      <c r="H42" s="54">
         <v>15000</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="46">
         <f>C42*H42*D42/10^7</f>
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="73">
         <v>100000</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>0.8</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="50">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="41">
         <v>0.15</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="41">
         <v>0.3</v>
       </c>
-      <c r="H43" s="61">
+      <c r="H43" s="54">
         <v>10000</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="46">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="25" t="str">
+      <c r="A44" s="12"/>
+      <c r="B44" s="68" t="str">
         <f>"All " &amp;A43&amp;" Coaching Classes"</f>
         <v>All CA &amp; CS Coaching Classes</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="62">
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="55">
         <f>SUMPRODUCT(H40:H43,E40:E43)/SUM(E40:E43)</f>
         <v>12777.777777777777</v>
       </c>
-      <c r="I44" s="54">
+      <c r="I44" s="47">
         <f>SUM(I40:I43)</f>
         <v>920</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="74">
         <v>130000</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>0.4</v>
       </c>
-      <c r="E45" s="56">
+      <c r="E45" s="49">
         <f>D45*C45/10^5</f>
         <v>0.52</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="41">
         <v>0.1467</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="41">
         <v>0.27529999999999999</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="53">
         <v>15000</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="45">
         <f>C45*H45*D45/10^7</f>
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="73">
         <v>30000</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>0.7</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="50">
         <f>D46*C46/10^5</f>
         <v>0.21</v>
       </c>
-      <c r="F46" s="47">
+      <c r="F46" s="41">
         <v>0.15109999999999998</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="41">
         <v>0.2883</v>
       </c>
-      <c r="H46" s="61">
+      <c r="H46" s="54">
         <v>25000</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I46" s="46">
         <f>C46*H46*D46/10^7</f>
         <v>52.499999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="73">
         <v>35000</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>0.4</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="50">
         <f>D47*C47/10^5</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="41">
         <v>0.1386</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="41">
         <v>0.24609999999999999</v>
       </c>
-      <c r="H47" s="61">
+      <c r="H47" s="54">
         <v>25000</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I47" s="46">
         <f>C47*H47*D47/10^7</f>
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="25" t="str">
+      <c r="A48" s="12"/>
+      <c r="B48" s="68" t="str">
         <f>"All " &amp;A47&amp;" Coaching Classes"</f>
         <v>All Foreign Study Coaching Classes</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="62">
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="55">
         <f>SUMPRODUCT(H45:H47,E45:E47)/SUM(E45:E47)</f>
         <v>19022.988505747126</v>
       </c>
-      <c r="I48" s="54">
+      <c r="I48" s="47">
         <f>SUM(I45:I47)</f>
         <v>165.5</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="74">
         <v>45000</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>0.6</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="49">
         <f>D49*C49/10^5</f>
         <v>0.27</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="41">
         <v>0.18760000000000002</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="41">
         <v>0.35020000000000001</v>
       </c>
-      <c r="H49" s="60">
+      <c r="H49" s="53">
         <v>15250</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="45">
         <f>C49*H49*D49/10^7</f>
         <v>41.174999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="13"/>
-      <c r="B50" s="25" t="str">
+      <c r="A50" s="11"/>
+      <c r="B50" s="68" t="str">
         <f>"All " &amp;A49&amp;" Coaching Classes"</f>
         <v>All Law Coaching Classes</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="62">
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="55">
         <f>SUMPRODUCT(H49:H49,E49:E49)/SUM(E49:E49)</f>
         <v>15249.999999999998</v>
       </c>
-      <c r="I50" s="54">
+      <c r="I50" s="47">
         <f>SUM(I49:I49)</f>
         <v>41.174999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="75">
         <v>9200000</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="19">
         <v>0.2</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="51">
         <f>D51*C51/10^5</f>
         <v>18.399999999999999</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="63">
+      <c r="H51" s="56">
         <f>H16</f>
         <v>10000</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="21">
         <f>C51*H51*D51/10^7</f>
         <v>1840</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="62">
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="55">
         <f>SUMPRODUCT(H51:H51,E51:E51)/SUM(E51)</f>
         <v>10000</v>
       </c>
-      <c r="I52" s="54">
+      <c r="I52" s="47">
         <f>SUM(I51:I51)</f>
         <v>1840</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="11.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="22" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="21">
         <f>SUM(I3:I8)+SUM(I10:I14)+SUM(I16:I19)+SUM(I21:I24)+SUM(I26:I27)+SUM(I29:I31)+SUM(I33:I34)+SUM(I36:I38)+SUM(I40:I43)+SUM(I45:I47)+SUM(I49)+SUM(I51)</f>
         <v>37445.513031999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B52:E52"/>
@@ -3089,6 +3094,11 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B44:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3112,177 +3122,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="30" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="30"/>
+    <col min="1" max="1" width="3.54296875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="31">
         <v>31701527</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="32">
         <v>30575245</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <v>590787680</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="32">
         <v>576046732</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="31">
         <v>735724676</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="32">
         <v>694247244</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="31">
         <v>21057</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="32">
         <v>23010</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="33">
         <f>C4/C7</f>
         <v>1505.5101391461271</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="34">
         <f>D4/D7</f>
         <v>1328.7807475010866</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="35">
         <f>C4/C6</f>
         <v>4.3088845643122077E-2</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="36">
         <f>D4/D6</f>
         <v>4.4040859022841147E-2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="31">
         <v>179408000</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="32">
         <v>150309000</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>1892201000</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="32">
         <v>1545136000</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="31">
         <v>2870831000</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="32">
         <v>2269854000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="31">
         <v>101274</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="32">
         <v>85000</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="37">
         <f>C11/C14</f>
         <v>1771.510950490748</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="38">
         <f>D11/D14</f>
         <v>1768.3411764705882</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="35">
         <f>C11/C13</f>
         <v>6.2493403477947677E-2</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="36">
         <f>D11/D13</f>
         <v>6.6219677565164989E-2</v>
       </c>
